--- a/LF/TAS/Cote d'Ivoire/Feb 2022/ci_lf_tas1_2_partcipants_202202.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Feb 2022/ci_lf_tas1_2_partcipants_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -339,10 +339,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) 2. TAS1 FL - Formulaire Participants V3</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_2_partcipants_202110_v3</t>
+    <t>(February 2022) 2. TAS1 FL - Formulaire Participants</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_2_partcipants_202202</t>
   </si>
   <si>
     <t>French</t>
@@ -354,9 +354,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -401,6 +401,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -409,76 +500,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,13 +523,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,16 +531,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,24 +545,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,187 +573,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +797,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,6 +832,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,175 +894,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1458,26 +1458,26 @@
       <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.6266666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="42.6266666666667" customWidth="1"/>
-    <col min="4" max="4" width="41.2533333333333" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.3733333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.6266666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.8733333333333" customWidth="1"/>
-    <col min="9" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.3733333333333" customWidth="1"/>
-    <col min="12" max="12" width="39.8733333333333" customWidth="1"/>
-    <col min="13" max="13" width="9.75333333333333" customWidth="1"/>
-    <col min="14" max="14" width="35.3733333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.8733333333333" customWidth="1"/>
-    <col min="16" max="16" width="36.6266666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="16.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="42.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="41.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="47.3703703703704" customWidth="1"/>
+    <col min="7" max="7" width="12.6296296296296" customWidth="1"/>
+    <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
+    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
+    <col min="11" max="11" width="20.3703703703704" customWidth="1"/>
+    <col min="12" max="12" width="39.8740740740741" customWidth="1"/>
+    <col min="13" max="13" width="9.75555555555556" customWidth="1"/>
+    <col min="14" max="14" width="35.3703703703704" customWidth="1"/>
+    <col min="15" max="15" width="13.8740740740741" customWidth="1"/>
+    <col min="16" max="16" width="36.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="36" spans="1:16">
+    <row r="1" s="3" customFormat="1" ht="18" spans="1:16">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="63" spans="1:16">
+    <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" s="9" customFormat="1" customHeight="1" spans="1:16">
+    <row r="10" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:16">
       <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" s="10" customFormat="1" ht="31.5" spans="1:16">
+    <row r="12" s="10" customFormat="1" ht="28.5" spans="1:16">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="47.25" spans="1:16">
+    <row r="13" s="3" customFormat="1" ht="42.75" spans="1:16">
       <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="14" s="3" customFormat="1" ht="28.5" spans="1:16">
       <c r="A14" s="13" t="s">
         <v>75</v>
       </c>
@@ -2017,18 +2017,18 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3733333333333" customWidth="1"/>
-    <col min="2" max="2" width="39.6266666666667" customWidth="1"/>
-    <col min="3" max="3" width="23.7533333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.8733333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3703703703704" customWidth="1"/>
+    <col min="2" max="2" width="39.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="23.7555555555556" customWidth="1"/>
+    <col min="4" max="4" width="20.8740740740741" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2145,13 +2145,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="46.5037037037037" customWidth="1"/>
+    <col min="2" max="2" width="31.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/LF/TAS/Cote d'Ivoire/Feb 2022/ci_lf_tas1_2_partcipants_202202.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Feb 2022/ci_lf_tas1_2_partcipants_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -144,6 +144,18 @@
     <t>Sélectionner le code de votre école</t>
   </si>
   <si>
+    <t>${p_cluster_name} != 'Autre'</t>
+  </si>
+  <si>
+    <t>p_cluster_name2</t>
+  </si>
+  <si>
+    <t>${p_cluster_name} = 'Autre'</t>
+  </si>
+  <si>
+    <t>p_cluster_id2</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -339,10 +351,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(February 2022) 2. TAS1 FL - Formulaire Participants</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_2_partcipants_202202</t>
+    <t>(February 2022) 2. TAS1 FL - Formulaire Participants V2</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_2_partcipants_202202_2</t>
   </si>
   <si>
     <t>French</t>
@@ -353,12 +365,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +387,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -412,14 +431,83 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,9 +520,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,75 +535,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -532,7 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,7 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,43 +592,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,139 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,21 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -839,17 +843,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,6 +890,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -897,152 +916,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1060,16 +1079,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1084,10 +1104,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1101,20 +1127,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1448,14 +1474,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1478,532 +1504,589 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:16">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="14" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="13"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="14" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="13"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="14" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="13"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="14" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="13"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:16">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="14" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="13"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="16" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:16">
-      <c r="A8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="25" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="s">
+      <c r="C9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:16">
-      <c r="A9" s="13" t="s">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:16">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="25" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:16">
+      <c r="A11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
+      <c r="B11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
-      <c r="A10" s="17" t="s">
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" s="10" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
+      <c r="B12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A11" s="13" t="s">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="14" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-    </row>
-    <row r="12" s="10" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A12" s="10" t="s">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="10" t="s">
+      <c r="C14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="D14" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="E14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19" t="s">
+      <c r="F14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="42.75" spans="1:16">
-      <c r="A13" s="13" t="s">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="42.75" spans="1:16">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="B15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+    <row r="16" s="3" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="13" t="s">
+      <c r="B16" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="27" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
-      <c r="A16" s="13" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:16">
+      <c r="A17" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B17" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="13" t="s">
+      <c r="C17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:16">
+      <c r="A18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,7 +2100,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -2033,7 +2116,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2048,86 +2131,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2228,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2156,24 +2239,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Cote d'Ivoire/Feb 2022/ci_lf_tas1_2_partcipants_202202.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Feb 2022/ci_lf_tas1_2_partcipants_202202.xlsx
@@ -252,7 +252,7 @@
     <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
   </si>
   <si>
-    <t>concat(${p_district_id}, '-', ${p_cluster_id}, '-' ,${p_num})</t>
+    <t>if(${p_cluster_name} = 'Autre', concat(${p_district_id}, '-', ${p_cluster_id2}, '-' ,${p_num}), concat(${p_district_id}, '-', ${p_cluster_id}, '-' ,${p_num}))</t>
   </si>
   <si>
     <t>note</t>
@@ -1477,11 +1477,11 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1956,7 +1956,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="42.75" spans="1:16">
+    <row r="15" s="3" customFormat="1" ht="57" spans="1:16">
       <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
